--- a/biology/Histoire de la zoologie et de la botanique/Melchior_de_Lisle/Melchior_de_Lisle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Melchior_de_Lisle/Melchior_de_Lisle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melchior de Lisle, né le 22 février 1908 à Brest et mort le 26 août 1977 à Paris, est un entomologiste français, spécialisé dans les coléoptères lucanes.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élève de l'École polytechnique, il dirige, au Cameroun, des travaux d'infrastructure (ponts)[1], puis à Paris devient directeur d'une école d'ingénieurs. Pianiste[2], il épouse, en 1933, l'organiste Christiane Frommer, qui tient à Paris un salon de musique réputé[3]. Une biographie a été écrite par Jean-Pierre Lacroix[4]. Ils ont quatre enfants, dont la psychanalyste Jacqueline Schaeffer, épouse du fondateur de la musique concrète, Pierre Schaeffer.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève de l'École polytechnique, il dirige, au Cameroun, des travaux d'infrastructure (ponts), puis à Paris devient directeur d'une école d'ingénieurs. Pianiste, il épouse, en 1933, l'organiste Christiane Frommer, qui tient à Paris un salon de musique réputé. Une biographie a été écrite par Jean-Pierre Lacroix. Ils ont quatre enfants, dont la psychanalyste Jacqueline Schaeffer, épouse du fondateur de la musique concrète, Pierre Schaeffer.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Travaux entomologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant son séjour au Cameroun, il s'intéresse aux cétoines dont il observe les mœurs et décrit des formes ou sous-espèces nouvelles[5],[6].
-De retour en Europe, ce sont les lucanes qui le passionnent. Il en rassemble une importante collection et décrit de nombreux nouveaux taxa. Ses travaux les plus importants sont publiés dans la revue Zoologique suisse[7].
-Il a également étudié les cérambycides[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant son séjour au Cameroun, il s'intéresse aux cétoines dont il observe les mœurs et décrit des formes ou sous-espèces nouvelles,.
+De retour en Europe, ce sont les lucanes qui le passionnent. Il en rassemble une importante collection et décrit de nombreux nouveaux taxa. Ses travaux les plus importants sont publiés dans la revue Zoologique suisse.
+Il a également étudié les cérambycides.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Noms de genre et d'espèces dédiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bangalaia lislei Villiers, 1941
 Dorcus delislei Nagai &amp; Tsukawaki, 1999
@@ -614,9 +632,11 @@
           <t>Taxa décrits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une liste des 103 noms nouveaux qu'il a créés a été publiée sur le web[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une liste des 103 noms nouveaux qu'il a créés a été publiée sur le web.
 </t>
         </is>
       </c>
